--- a/Lista de cotejo.xlsx
+++ b/Lista de cotejo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UV\Downloads\Trabajo Uv\Proyectos\2.- 08-03-2024\SS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Criterios" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,12 @@
     <t>Se utilizan medidas relativas (em, %) y no tamaños fijos.</t>
   </si>
   <si>
-    <t>Language as Communication</t>
-  </si>
-  <si>
-    <t>Julio César Sánchez Martínez</t>
+    <t>Experiencia Recepcional
+Experiencia Recepciona
+Recepcional</t>
+  </si>
+  <si>
+    <t>César Velazquez Ortiz</t>
   </si>
 </sst>
 </file>
@@ -749,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -870,6 +872,9 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1758,8 +1763,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1818,7 @@
       <c r="B5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="47" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="44"/>
@@ -1836,7 +1841,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="45">
-        <v>45075</v>
+        <v>45370</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
